--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/ERICK VILLALOBOS.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/ERICK VILLALOBOS.xlsx
@@ -1234,34 +1234,16 @@
     <x:t>AID</x:t>
   </x:si>
   <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Se remueve acceso por no cumplir con política de 45 días (período del 15 de dic al 31 de enero)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESMERALDA GARCIA MONTELLANO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BRANDON SAUL VALDEZ CERVANTES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUIS ANGEL RIVERA TRIANA</x:t>
-  </x:si>
-  <x:si>
     <x:t>PRODESK</x:t>
   </x:si>
   <x:si>
-    <x:t>JAQUELINE SORIA CHAVEZ</x:t>
+    <x:t>SR ANALYST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA SALAS LOERA</x:t>
   </x:si>
   <x:si>
     <x:t>ANALISTA AID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SR ANALYST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAURA SALAS LOERA</x:t>
   </x:si>
   <x:si>
     <x:t>SANDRA LOPEZ RODRIGUEZ</x:t>
@@ -6477,14 +6459,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J25"/>
+  <x:dimension ref="A1:J7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="39.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="35.996339" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.139196" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="7.567768" style="0" customWidth="1"/>
@@ -6492,7 +6474,7 @@
     <x:col min="7" max="7" width="15.853482" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="17.710625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="85.139196" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10">
@@ -6552,10 +6534,10 @@
         <x:v>397</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>319</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>320</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
@@ -6564,30 +6546,26 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="F6" s="4">
-        <x:v>45204</x:v>
+        <x:v>45208</x:v>
       </x:c>
       <x:c r="G6" s="4">
-        <x:v>45215</x:v>
+        <x:v>45296</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="I6" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J6" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
+      <x:c r="I6" s="3"/>
+      <x:c r="J6" s="3"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
         <x:v>397</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>403</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>17</x:v>
@@ -6596,588 +6574,16 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="F7" s="4">
-        <x:v>45204</x:v>
+        <x:v>45203</x:v>
       </x:c>
       <x:c r="G7" s="4">
-        <x:v>45210</x:v>
+        <x:v>45288</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="I7" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J7" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>321</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>322</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F8" s="4">
-        <x:v>45204</x:v>
-      </x:c>
-      <x:c r="G8" s="4">
-        <x:v>45211</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I8" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J8" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E9" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F9" s="4">
-        <x:v>45204</x:v>
-      </x:c>
-      <x:c r="G9" s="4">
-        <x:v>45219</x:v>
-      </x:c>
-      <x:c r="H9" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I9" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J9" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E10" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F10" s="4">
-        <x:v>45204</x:v>
-      </x:c>
-      <x:c r="G10" s="4">
-        <x:v>45218</x:v>
-      </x:c>
-      <x:c r="H10" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I10" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J10" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F11" s="4">
-        <x:v>45204</x:v>
-      </x:c>
-      <x:c r="G11" s="4">
-        <x:v>45204</x:v>
-      </x:c>
-      <x:c r="H11" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I11" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J11" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s">
-        <x:v>290</x:v>
-      </x:c>
-      <x:c r="D12" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E12" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F12" s="4">
-        <x:v>45204</x:v>
-      </x:c>
-      <x:c r="G12" s="4">
-        <x:v>45219</x:v>
-      </x:c>
-      <x:c r="H12" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I12" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J12" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="C13" s="3" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="D13" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E13" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F13" s="4">
-        <x:v>45204</x:v>
-      </x:c>
-      <x:c r="G13" s="4">
-        <x:v>45216</x:v>
-      </x:c>
-      <x:c r="H13" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I13" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J13" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="C14" s="3" t="s">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="D14" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E14" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F14" s="4">
-        <x:v>45204</x:v>
-      </x:c>
-      <x:c r="G14" s="4">
-        <x:v>45222</x:v>
-      </x:c>
-      <x:c r="H14" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I14" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J14" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B15" s="3" t="s">
-        <x:v>306</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>307</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E15" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F15" s="4">
-        <x:v>45203</x:v>
-      </x:c>
-      <x:c r="G15" s="4">
-        <x:v>45215</x:v>
-      </x:c>
-      <x:c r="H15" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I15" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J15" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B16" s="3" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="C16" s="3" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="D16" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E16" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F16" s="4">
-        <x:v>45203</x:v>
-      </x:c>
-      <x:c r="G16" s="4">
-        <x:v>45215</x:v>
-      </x:c>
-      <x:c r="H16" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I16" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J16" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B17" s="3" t="s">
-        <x:v>296</x:v>
-      </x:c>
-      <x:c r="C17" s="3" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="D17" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E17" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F17" s="4">
-        <x:v>45203</x:v>
-      </x:c>
-      <x:c r="G17" s="4">
-        <x:v>45212</x:v>
-      </x:c>
-      <x:c r="H17" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I17" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J17" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B18" s="3" t="s">
-        <x:v>308</x:v>
-      </x:c>
-      <x:c r="C18" s="3" t="s">
-        <x:v>309</x:v>
-      </x:c>
-      <x:c r="D18" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E18" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F18" s="4">
-        <x:v>45203</x:v>
-      </x:c>
-      <x:c r="G18" s="4">
-        <x:v>45216</x:v>
-      </x:c>
-      <x:c r="H18" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I18" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J18" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B19" s="3" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="C19" s="3" t="s">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="D19" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E19" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F19" s="4">
-        <x:v>45203</x:v>
-      </x:c>
-      <x:c r="G19" s="4">
-        <x:v>45216</x:v>
-      </x:c>
-      <x:c r="H19" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I19" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J19" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B20" s="3" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="C20" s="3" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="D20" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E20" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F20" s="4">
-        <x:v>45203</x:v>
-      </x:c>
-      <x:c r="G20" s="4">
-        <x:v>45212</x:v>
-      </x:c>
-      <x:c r="H20" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I20" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J20" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B21" s="3" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="C21" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D21" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E21" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F21" s="4">
-        <x:v>45203</x:v>
-      </x:c>
-      <x:c r="G21" s="4">
-        <x:v>45216</x:v>
-      </x:c>
-      <x:c r="H21" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I21" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J21" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B22" s="3" t="s">
-        <x:v>404</x:v>
-      </x:c>
-      <x:c r="C22" s="3" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="D22" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E22" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F22" s="4">
-        <x:v>45203</x:v>
-      </x:c>
-      <x:c r="G22" s="4">
-        <x:v>45218</x:v>
-      </x:c>
-      <x:c r="H22" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I22" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J22" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B23" s="3" t="s">
-        <x:v>405</x:v>
-      </x:c>
-      <x:c r="C23" s="3" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="D23" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E23" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F23" s="4">
-        <x:v>45161</x:v>
-      </x:c>
-      <x:c r="G23" s="4">
-        <x:v>45218</x:v>
-      </x:c>
-      <x:c r="H23" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I23" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J23" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B24" s="3" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="C24" s="3" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D24" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E24" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F24" s="4">
-        <x:v>45208</x:v>
-      </x:c>
-      <x:c r="G24" s="4">
-        <x:v>45296</x:v>
-      </x:c>
-      <x:c r="H24" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I24" s="3"/>
-      <x:c r="J24" s="3"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="B25" s="3" t="s">
-        <x:v>310</x:v>
-      </x:c>
-      <x:c r="C25" s="3" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D25" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E25" s="3" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F25" s="4">
-        <x:v>45203</x:v>
-      </x:c>
-      <x:c r="G25" s="4">
-        <x:v>45288</x:v>
-      </x:c>
-      <x:c r="H25" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I25" s="3"/>
-      <x:c r="J25" s="3"/>
+      <x:c r="I7" s="3"/>
+      <x:c r="J7" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:K5"/>
@@ -7194,7 +6600,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J11"/>
+  <x:dimension ref="A1:J10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -7209,7 +6615,7 @@
     <x:col min="7" max="7" width="15.853482" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="17.710625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="85.139196" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10">
@@ -7219,7 +6625,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>406</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -7266,57 +6672,53 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>406</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>407</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>322</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>408</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="F6" s="4">
-        <x:v>45098</x:v>
+        <x:v>45183</x:v>
       </x:c>
       <x:c r="G6" s="4">
-        <x:v>45268</x:v>
+        <x:v>45335</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="I6" s="3" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="J6" s="3" t="s">
-        <x:v>402</x:v>
-      </x:c>
+      <x:c r="I6" s="3"/>
+      <x:c r="J6" s="3"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>406</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>310</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>409</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="F7" s="4">
-        <x:v>45183</x:v>
+        <x:v>45102</x:v>
       </x:c>
       <x:c r="G7" s="4">
-        <x:v>45335</x:v>
+        <x:v>45321</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>20</x:v>
@@ -7326,25 +6728,25 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="3" t="s">
-        <x:v>406</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>410</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>228</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>408</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="F8" s="4">
-        <x:v>45102</x:v>
+        <x:v>45156</x:v>
       </x:c>
       <x:c r="G8" s="4">
-        <x:v>45321</x:v>
+        <x:v>45320</x:v>
       </x:c>
       <x:c r="H8" s="3" t="s">
         <x:v>20</x:v>
@@ -7354,25 +6756,25 @@
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="3" t="s">
-        <x:v>406</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>272</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>408</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="F9" s="4">
-        <x:v>45156</x:v>
+        <x:v>45098</x:v>
       </x:c>
       <x:c r="G9" s="4">
-        <x:v>45320</x:v>
+        <x:v>45302</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
         <x:v>20</x:v>
@@ -7382,59 +6784,31 @@
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="3" t="s">
-        <x:v>406</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>235</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>236</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>408</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="F10" s="4">
-        <x:v>45098</x:v>
+        <x:v>45102</x:v>
       </x:c>
       <x:c r="G10" s="4">
-        <x:v>45302</x:v>
+        <x:v>45283</x:v>
       </x:c>
       <x:c r="H10" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="I10" s="3"/>
       <x:c r="J10" s="3"/>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="3" t="s">
-        <x:v>406</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>411</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>320</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
-        <x:v>408</x:v>
-      </x:c>
-      <x:c r="F11" s="4">
-        <x:v>45102</x:v>
-      </x:c>
-      <x:c r="G11" s="4">
-        <x:v>45283</x:v>
-      </x:c>
-      <x:c r="H11" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I11" s="3"/>
-      <x:c r="J11" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:K5"/>
@@ -7476,7 +6850,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>412</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -7506,10 +6880,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>413</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>414</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -7523,10 +6897,10 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>412</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>415</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
         <x:v>80</x:v>
@@ -7535,10 +6909,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>416</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>417</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="G6" s="5">
         <x:v>45330.4909907407</x:v>
